--- a/DesignPatterns/设计模式.xlsx
+++ b/DesignPatterns/设计模式.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>单例模式——5种实现方式</t>
   </si>
@@ -294,16 +294,46 @@
   <si>
     <t>我们一般写的都是该接口的子接口实现类：MethodInterceptor</t>
   </si>
+  <si>
+    <t>创建代理的步骤</t>
+  </si>
+  <si>
+    <t>ProxyFactory</t>
+  </si>
+  <si>
+    <t>1 创建代理对象</t>
+  </si>
+  <si>
+    <t>1，创建放大器</t>
+  </si>
+  <si>
+    <t>2，需要代理的对象设置成父类</t>
+  </si>
+  <si>
+    <t>3，设置回调函数（自己）</t>
+  </si>
+  <si>
+    <t>4，创建子类对象（代理对象）</t>
+  </si>
+  <si>
+    <t>2 继承MethodInterceptor</t>
+  </si>
+  <si>
+    <t>1，重写拦截器方法</t>
+  </si>
+  <si>
+    <t>2，method.invoke传入target和objects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -322,6 +352,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -330,104 +466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -436,28 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -465,6 +481,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -475,187 +505,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,21 +696,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,17 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,7 +744,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,7 +783,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,141 +816,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1458,11 +1485,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1472,12 +1499,12 @@
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1492,7 +1519,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1507,7 +1534,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -1515,7 +1542,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
@@ -1553,7 +1580,7 @@
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1603,12 +1630,12 @@
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1669,10 +1696,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1681,7 +1708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1731,7 +1758,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1768,6 +1795,56 @@
     <row r="19" spans="4:4">
       <c r="D19" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
